--- a/biology/Zoologie/Argenteohyla_siemersi/Argenteohyla_siemersi.xlsx
+++ b/biology/Zoologie/Argenteohyla_siemersi/Argenteohyla_siemersi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argenteohyla siemersi est une espèce d'amphibiens de la famille des Hylidae, la seule du genre Argenteohyla[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argenteohyla siemersi est une espèce d'amphibiens de la famille des Hylidae, la seule du genre Argenteohyla.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Argentine, dans les provinces de Santa Fe, de Corrientes, d'Entre Ríos et de Buenos Aires ;
 dans le Sud du Paraguay ;
 dans le sud de l'Uruguay.</t>
@@ -544,9 +558,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Williams &amp; Bosso, 1994 deux sous-espèces peuvent être reconnues[2]  :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Williams &amp; Bosso, 1994 deux sous-espèces peuvent être reconnues  :
 Argenteohyla siemersi siemersi (Mertens, 1937)
 Argenteohyla siemersi pederseni Williams &amp; Bosso, 1994</t>
         </is>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Silverstone Siemers qui a collecté l'holotype[3]. Le nom du genre lui a été donné en référence à sa distribution, l'Argentine[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Silverstone Siemers qui a collecté l'holotype. Le nom du genre lui a été donné en référence à sa distribution, l'Argentine.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mertens, 1937 : Ein neuer Laub-frosch aus Argentinien. Senckenbergiana, vol. 19, no 1/2, p. 12-14.
 Trueb, 1970 : The generic status of Hyla siemersi Mertens. Herpetologica, vol. 26, p. 254-267.
